--- a/lab2_template.xlsx
+++ b/lab2_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Лист 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>График функции y=sin(x)</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>y=sin(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">График функции </t>
   </si>
 </sst>
 </file>
@@ -527,14 +530,159 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="17"/>
+    <col customWidth="1" max="2" min="2" width="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="3" t="n"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="3" t="n"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="3" t="n"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="3" t="n"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="n"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="n"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="3" t="n"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="3" t="n"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="3" t="n"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="3" t="n"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="3" t="n"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="3" t="n"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="n"/>
+      <c r="B32" s="3" t="n"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="3" t="n"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="n"/>
+      <c r="B34" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/lab2_template.xlsx
+++ b/lab2_template.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>График функции y=sin(x)</t>
   </si>
   <si>
-    <t>y</t>
+    <t>x</t>
   </si>
   <si>
     <t>y=sin(x)</t>
   </si>
   <si>
     <t xml:space="preserve">График функции </t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -100,6 +103,36 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2171700" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,140 +575,141 @@
     <col customWidth="1" max="2" min="2" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row customHeight="1" ht="22.5" r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row customHeight="1" ht="22.5" r="2" spans="1:3"/>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="n"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="n"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="n"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="n"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="n"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="n"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="n"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="n"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="3" t="n"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="n"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="n"/>
       <c r="B14" s="3" t="n"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="n"/>
       <c r="B15" s="3" t="n"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="n"/>
       <c r="B16" s="3" t="n"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="n"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="n"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="n"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="n"/>
       <c r="B20" s="3" t="n"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="n"/>
       <c r="B21" s="3" t="n"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="3" t="n"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="n"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="n"/>
       <c r="B24" s="3" t="n"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="3" t="n"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="n"/>
       <c r="B26" s="3" t="n"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="3" t="n"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="n"/>
       <c r="B28" s="3" t="n"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="3" t="n"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="n"/>
       <c r="B30" s="3" t="n"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="3" t="n"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="n"/>
       <c r="B32" s="3" t="n"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="n"/>
       <c r="B33" s="3" t="n"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="n"/>
       <c r="B34" s="3" t="n"/>
     </row>
@@ -684,5 +718,6 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>